--- a/src/main/java/SOR_resources_Playwright/Test_Data.xlsx
+++ b/src/main/java/SOR_resources_Playwright/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11850" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CV_LoginTestCase" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="135">
   <si>
     <t>Module</t>
   </si>
@@ -407,6 +407,33 @@
   </si>
   <si>
     <t>Browser_name</t>
+  </si>
+  <si>
+    <t>Add Group</t>
+  </si>
+  <si>
+    <t>Grp_Name</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Grp_Desc</t>
+  </si>
+  <si>
+    <t>Done by Automation</t>
+  </si>
+  <si>
+    <t>Add Switch</t>
+  </si>
+  <si>
+    <t>Switch_name</t>
+  </si>
+  <si>
+    <t>Switch_Desc</t>
+  </si>
+  <si>
+    <t>Switch_Percentage</t>
   </si>
 </sst>
 </file>
@@ -1032,12 +1059,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,33 +1459,33 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2">
@@ -1463,26 +1493,26 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
@@ -1490,32 +1520,32 @@
       </c>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
@@ -1523,163 +1553,163 @@
       </c>
     </row>
     <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" s="7" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="15" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="15" spans="1:18">
-      <c r="A11" s="7" t="s">
+    <row r="9" s="4" customFormat="1" ht="15" spans="1:1">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="15" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="15" spans="1:18">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>1000</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <v>20</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="15" spans="1:1">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="28.5" spans="1:19">
-      <c r="A13" s="7" t="s">
+    <row r="12" s="7" customFormat="1" ht="15" spans="1:1">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" s="7" customFormat="1" ht="28.5" spans="1:19">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" s="6" customFormat="1"/>
-    <row r="15" s="6" customFormat="1" spans="1:8">
-      <c r="A15" s="6" t="s">
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" s="7" customFormat="1"/>
+    <row r="15" s="7" customFormat="1" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1754,606 +1784,606 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:10">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="3:10">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="3:10">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2379,22 +2409,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5583333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.44166666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.8833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5583333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.4416666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.3333333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.5583333333333" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.4416666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.1083333333333" style="3" customWidth="1"/>
-    <col min="12" max="18" width="13.4416666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.44166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.5583333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.5583333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.4416666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.1083333333333" style="4" customWidth="1"/>
+    <col min="12" max="18" width="13.4416666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
@@ -2416,29 +2446,29 @@
       <c r="R1"/>
     </row>
     <row r="2" ht="15" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2">
@@ -2454,9 +2484,9 @@
       <c r="R2"/>
     </row>
     <row r="3" ht="15" spans="1:18">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -2474,23 +2504,23 @@
       <c r="R3"/>
     </row>
     <row r="4" ht="15" spans="1:18">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
@@ -2508,9 +2538,9 @@
       <c r="R4"/>
     </row>
     <row r="5" ht="15" spans="1:18">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -2528,29 +2558,29 @@
       <c r="R5"/>
     </row>
     <row r="6" ht="15" spans="1:18">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
@@ -2566,13 +2596,13 @@
       <c r="R6"/>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2585,13 +2615,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
@@ -2669,6 +2699,51 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" customFormat="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1" spans="1:1">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="admin@1234"/>
